--- a/BOM/lushroom_pi_BOM.xlsx
+++ b/BOM/lushroom_pi_BOM.xlsx
@@ -8,19 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Arup/Jobs/Lush_Spa/Code/LushRooms/LushRooms/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA74EC4-90C6-0445-A45D-94B56D30504D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848F3F33-2B6D-6742-9071-78C6D3DF5861}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25920" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LushRoom Pi" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
   <si>
     <t>Assembly Name :</t>
   </si>
@@ -115,9 +122,6 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>https://www.tinkerforge.com/en/shop/accessories/cable/bricklet-cable-black-50cm.html</t>
-  </si>
-  <si>
     <t>LushRoom Pi</t>
   </si>
   <si>
@@ -199,34 +203,16 @@
     <t>https://www.amazon.co.uk/gp/product/B015PR4ALC/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1</t>
   </si>
   <si>
-    <t>Tinkerforge Mounting Kit 9mm</t>
-  </si>
-  <si>
-    <t>https://www.tinkerforge.com/en/shop/accessories/mounting/mounting-kit-9mm.html</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/sourcing-M1-6x12mm-Phillips-Stainless-Fasteners/dp/B07LGVPZV8/ref=sr_1_4?s=diy&amp;ie=UTF8&amp;qid=1546818742&amp;sr=1-4&amp;keywords=m1.6+screw+12mm</t>
-  </si>
-  <si>
     <t>the bag has 100 pieces</t>
   </si>
   <si>
     <t>the kit has more spacers than needed</t>
   </si>
   <si>
-    <t xml:space="preserve">M1.6x12mm Machine Screws Pan Phillips Cross Head Screw </t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/Metric-Coarse-Stainless-Steel-Hexagon/dp/B07JBSMNFJ/ref=sr_1_14?s=diy&amp;ie=UTF8&amp;qid=1546819000&amp;sr=1-14&amp;keywords=m1.6%2Bnut%2B5mm&amp;th=1</t>
-  </si>
-  <si>
     <t>Case fixing kit - screws</t>
   </si>
   <si>
     <t>Case fixing kit - nuts</t>
-  </si>
-  <si>
-    <t>M1.6x Machine Nuts</t>
   </si>
   <si>
     <t>64 GB USB stick</t>
@@ -294,6 +280,57 @@
   <si>
     <t>Controls</t>
   </si>
+  <si>
+    <t>Cooling</t>
+  </si>
+  <si>
+    <t>Heatsinks</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Aukru-Heat-Raspberry-Aluminium-Silver/dp/B00ILK6DMA/ref=sr_1_20?ie=UTF8&amp;qid=1547332737&amp;sr=8-20&amp;keywords=raspberry+pi+3+b%2B+heatsinks</t>
+  </si>
+  <si>
+    <t>Aukru Aluminum Raspberry Pi Heatsink</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Machine-Screws-Bolts-Plated-Screw/dp/B00DY28UK8/ref=sr_1_6?s=diy&amp;ie=UTF8&amp;qid=1547333392&amp;sr=1-6&amp;keywords=m2.5+screw+12mm</t>
+  </si>
+  <si>
+    <t>Machine Screws/Bolts Zinc Plated (BZP) Pozi Pan Head Mch Screw M2.5 2.5mm x 12mm (Pack of 100)</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Bumper feet</t>
+  </si>
+  <si>
+    <t>254 Pieces Clear Rubber Feet Bumper Pads Adhesive Transparent Buffer Pads Cabinet Door Bumpers Self Stick Noise Dampening Pads, 6 Sizes</t>
+  </si>
+  <si>
+    <t>the bag has 245 pieces</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Adhesive-Transparent-Cabinet-Bumpers-Dampening/dp/B072K4DV32/ref=sr_1_30?s=diy&amp;ie=UTF8&amp;qid=1547333563&amp;sr=1-30&amp;keywords=rubber+feet</t>
+  </si>
+  <si>
+    <t>Tinkerforge Mounting Kit 12mm</t>
+  </si>
+  <si>
+    <t>https://www.tinkerforge.com/en/shop/accessories/mounting/mounting-kit-12mm.html</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Cable-Worlds-Slimmest-Plated-1080p-Classic-SlimHDMI/dp/B00S0SNFAQ/ref=sr_1_1?s=electronics&amp;ie=UTF8&amp;qid=1547334560&amp;sr=1-1&amp;keywords=1m+Slim+HDMI+Cable%2C+The+World%27s+Slimmest+HDMI+Lead%3F+%28Gold+Plated%2C+1080p%2C+4K%2C+UHD%2C+3D%2C+High+Speed%2C+ARC%29</t>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/gp/product/B07JC9XQNR/ref=ox_sc_act_title_1?smid=ARRV6GA0U2WO7&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Metric Coarse Stainless Steel Hexagon Full Nuts</t>
+  </si>
+  <si>
+    <t>the bag has 500 pieces</t>
+  </si>
 </sst>
 </file>
 
@@ -302,12 +339,12 @@
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="&quot; &quot;[$£-809]#,##0.00&quot; &quot;;&quot;-&quot;[$£-809]#,##0.00&quot; &quot;;&quot; &quot;[$£-809]&quot;-&quot;#&quot; &quot;;&quot; &quot;@"/>
     <numFmt numFmtId="165" formatCode="&quot; &quot;[$€-409]#,##0.00&quot; &quot;;&quot; &quot;[$€-409]&quot;(&quot;#,##0.00&quot;)&quot;;&quot; &quot;[$€-409]&quot;-&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -403,13 +440,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -484,10 +514,10 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -550,9 +580,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -586,20 +613,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -615,29 +642,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -649,6 +680,14 @@
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -666,24 +705,8 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="168" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="10"/>
-        <name val="Trebuchet MS"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -734,6 +757,14 @@
     </dxf>
     <dxf>
       <font>
+        <sz val="10"/>
+        <name val="Trebuchet MS"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -768,9 +799,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>57277</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57277</xdr:rowOff>
+      <xdr:colOff>171577</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>108077</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="847471" cy="571373"/>
     <xdr:pic>
@@ -798,7 +829,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7553452" y="20097877"/>
+          <a:off x="7855077" y="3905377"/>
           <a:ext cx="847471" cy="571373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -815,15 +846,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>136525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>174625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1098550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>655079</xdr:rowOff>
+      <xdr:colOff>1136650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>718579</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -852,7 +883,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7629525" y="12884150"/>
+          <a:off x="7858125" y="5594350"/>
           <a:ext cx="962025" cy="623329"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -908,15 +939,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>12701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1270000</xdr:colOff>
+      <xdr:colOff>1396999</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>6351</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -939,8 +970,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9398000" y="1"/>
-          <a:ext cx="2260600" cy="1695450"/>
+          <a:off x="9740900" y="12701"/>
+          <a:ext cx="2235199" cy="1676399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1057,13 +1088,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1211943</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>749300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1118,13 +1149,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>50799</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1236132</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>736600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1177,13 +1208,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>736600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1238,13 +1269,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>937919</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>673100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1299,13 +1330,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>685800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1360,13 +1391,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>165101</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>117941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1155701</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>737396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1421,13 +1452,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>100147</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1168400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>853797</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1482,13 +1513,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1193800</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>658586</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1541,13 +1572,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>46566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1168400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>740833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1602,13 +1633,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1154920</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>711200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1661,13 +1692,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>185973</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>977900</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>727077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1722,13 +1753,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>711200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1783,13 +1814,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>49004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>722553</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1840,11 +1871,131 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>693479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="https://images-na.ssl-images-amazon.com/images/I/71vbj1GLV3L._SL1500_.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B76056-BF0E-0646-8ADA-018062D2CF31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="18605" b="16666"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7810500" y="6096000"/>
+          <a:ext cx="914400" cy="591879"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>736600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="https://images-na.ssl-images-amazon.com/images/I/618XIxlYYZL._SL1500_.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D423E1-9196-1242-B67D-CC0CC3D65CC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7988300" y="10236200"/>
+          <a:ext cx="660400" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_13" displayName="Table_13" ref="B11:M31" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_13" displayName="Table_13" ref="B11:M33" totalsRowCount="1">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Part description"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Product name"/>
@@ -1854,15 +2005,15 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Picture"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Supplier"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Link"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Unit Cost GBP" totalsRowLabel="Subtotal" dataDxfId="6" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Total Cost GBP" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Unit Cost GBP" totalsRowLabel="Subtotal" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Total Cost GBP" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
       <calculatedColumnFormula>Table_13[[#This Row],[Qty]]*Table_13[[#This Row],[Unit Cost GBP]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(K13:K28)</totalsRowFormula>
+      <totalsRowFormula>SUM(K12:K30)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Unit Cost EUR" dataDxfId="5" totalsRowDxfId="2">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Unit Cost EUR" dataDxfId="4" totalsRowDxfId="0">
       <calculatedColumnFormula>#REF!/$C$8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{29020CE7-A77F-ED46-B0D7-8B79D804C3DB}" name="Notes" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{29020CE7-A77F-ED46-B0D7-8B79D804C3DB}" name="Notes" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2165,10 +2316,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X996"/>
+  <dimension ref="A1:X998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2181,7 +2332,7 @@
     <col min="6" max="6" width="9.83203125" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="21.5" customWidth="1"/>
-    <col min="9" max="9" width="57.1640625" customWidth="1"/>
+    <col min="9" max="9" width="58.5" customWidth="1"/>
     <col min="10" max="11" width="15.33203125" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" customWidth="1"/>
     <col min="13" max="13" width="27.83203125" customWidth="1"/>
@@ -2248,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2310,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="3"/>
@@ -2393,7 +2544,7 @@
     <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="13">
         <v>0.9</v>
@@ -2423,11 +2574,11 @@
     <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
-      <c r="C9" s="55">
-        <f>K35</f>
-        <v>320.065</v>
+      <c r="C9" s="53">
+        <f>K37</f>
+        <v>334.04500000000007</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="11"/>
@@ -2506,10 +2657,10 @@
         <v>13</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>14</v>
@@ -2534,10 +2685,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20">
@@ -2545,17 +2696,17 @@
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="48" t="s">
-        <v>39</v>
+      <c r="H12" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="I12" s="21"/>
-      <c r="J12" s="51">
+      <c r="J12" s="49">
         <v>20</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="50" t="s">
-        <v>82</v>
+      <c r="K12" s="39"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="48" t="s">
+        <v>75</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2569,40 +2720,40 @@
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="20">
         <v>1</v>
       </c>
       <c r="F13" s="20"/>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="37" t="s">
-        <v>52</v>
+      <c r="I13" s="36" t="s">
+        <v>51</v>
       </c>
-      <c r="J13" s="51">
+      <c r="J13" s="49">
         <f>Table_13[[#This Row],[Unit Cost EUR]]*$C$8</f>
         <v>0.441</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="50">
         <f>Table_13[[#This Row],[Qty]]*Table_13[[#This Row],[Unit Cost GBP]]</f>
         <v>0.441</v>
       </c>
-      <c r="L13" s="53">
+      <c r="L13" s="51">
         <v>0.49</v>
       </c>
-      <c r="M13" s="50" t="s">
-        <v>56</v>
+      <c r="M13" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2616,37 +2767,41 @@
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="20">
         <v>1</v>
       </c>
       <c r="F14" s="20"/>
-      <c r="H14" s="48" t="s">
-        <v>19</v>
+      <c r="G14" s="22"/>
+      <c r="H14" s="56" t="s">
+        <v>17</v>
       </c>
-      <c r="I14" s="21" t="s">
-        <v>31</v>
+      <c r="I14" s="36" t="s">
+        <v>54</v>
       </c>
-      <c r="J14" s="51">
-        <v>5.99</v>
+      <c r="J14" s="49">
+        <f>Table_13[[#This Row],[Unit Cost EUR]]*$C$8</f>
+        <v>26.991</v>
       </c>
-      <c r="K14" s="52">
-        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>5.99</v>
+      <c r="K14" s="50">
+        <f>Table_13[[#This Row],[Qty]]*Table_13[[#This Row],[Unit Cost GBP]]</f>
+        <v>26.991</v>
       </c>
-      <c r="L14" s="42"/>
-      <c r="M14" s="50" t="s">
-        <v>56</v>
+      <c r="L14" s="52">
+        <v>29.99</v>
+      </c>
+      <c r="M14" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -2660,37 +2815,40 @@
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="20"/>
-      <c r="H15" s="49" t="s">
-        <v>19</v>
+      <c r="H15" s="56" t="s">
+        <v>17</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
-      <c r="J15" s="51">
-        <v>7.99</v>
+      <c r="J15" s="49">
+        <f>Table_13[[#This Row],[Unit Cost EUR]]*$C$8</f>
+        <v>1.5209999999999999</v>
       </c>
-      <c r="K15" s="52">
-        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>7.99</v>
+      <c r="K15" s="50">
+        <f>Table_13[[#This Row],[Qty]]*Table_13[[#This Row],[Unit Cost GBP]]</f>
+        <v>3.0419999999999998</v>
       </c>
-      <c r="L15" s="42"/>
-      <c r="M15" s="50" t="s">
-        <v>56</v>
+      <c r="L15" s="52">
+        <v>1.69</v>
+      </c>
+      <c r="M15" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -2704,37 +2862,41 @@
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>78</v>
+      <c r="B16" s="22" t="s">
+        <v>26</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>78</v>
+      <c r="C16" s="22" t="s">
+        <v>27</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="20">
         <v>1</v>
       </c>
       <c r="F16" s="20"/>
-      <c r="H16" s="48" t="s">
-        <v>19</v>
+      <c r="G16" s="22"/>
+      <c r="H16" s="56" t="s">
+        <v>17</v>
       </c>
-      <c r="I16" s="21" t="s">
-        <v>79</v>
+      <c r="I16" s="46" t="s">
+        <v>29</v>
       </c>
-      <c r="J16" s="56">
-        <v>35.93</v>
+      <c r="J16" s="49">
+        <f>Table_13[[#This Row],[Unit Cost EUR]]*$C$8</f>
+        <v>26.991</v>
       </c>
-      <c r="K16" s="52">
-        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>35.93</v>
+      <c r="K16" s="50">
+        <f>Table_13[[#This Row],[Qty]]*Table_13[[#This Row],[Unit Cost GBP]]</f>
+        <v>26.991</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="50" t="s">
-        <v>56</v>
+      <c r="L16" s="52">
+        <v>29.99</v>
+      </c>
+      <c r="M16" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -2750,35 +2912,35 @@
     </row>
     <row r="17" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>72</v>
-      </c>
       <c r="C17" s="19" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="20">
         <v>1</v>
       </c>
       <c r="F17" s="20"/>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="37" t="s">
-        <v>73</v>
+      <c r="I17" s="36" t="s">
+        <v>97</v>
       </c>
-      <c r="J17" s="51">
-        <v>3.25</v>
+      <c r="J17" s="49">
+        <v>5.99</v>
       </c>
-      <c r="K17" s="52">
+      <c r="K17" s="50">
         <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>3.25</v>
+        <v>5.99</v>
       </c>
-      <c r="L17" s="42"/>
-      <c r="M17" s="50" t="s">
-        <v>56</v>
+      <c r="L17" s="41"/>
+      <c r="M17" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -2794,39 +2956,35 @@
     </row>
     <row r="18" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="20">
         <v>1</v>
       </c>
       <c r="F18" s="20"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="48" t="s">
-        <v>17</v>
+      <c r="H18" s="57" t="s">
+        <v>19</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="49">
+        <v>7.99</v>
+      </c>
+      <c r="K18" s="50">
+        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
+        <v>7.99</v>
+      </c>
+      <c r="L18" s="41"/>
+      <c r="M18" s="48" t="s">
         <v>55</v>
-      </c>
-      <c r="J18" s="51">
-        <f>Table_13[[#This Row],[Unit Cost EUR]]*$C$8</f>
-        <v>26.991</v>
-      </c>
-      <c r="K18" s="52">
-        <f>Table_13[[#This Row],[Qty]]*Table_13[[#This Row],[Unit Cost GBP]]</f>
-        <v>26.991</v>
-      </c>
-      <c r="L18" s="54">
-        <v>29.99</v>
-      </c>
-      <c r="M18" s="50" t="s">
-        <v>56</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -2842,38 +3000,35 @@
     </row>
     <row r="19" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="20"/>
-      <c r="H19" s="48" t="s">
-        <v>17</v>
+      <c r="H19" s="56" t="s">
+        <v>19</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>60</v>
+      <c r="I19" s="36" t="s">
+        <v>72</v>
       </c>
-      <c r="J19" s="51">
-        <f>Table_13[[#This Row],[Unit Cost EUR]]*$C$8</f>
-        <v>1.5209999999999999</v>
+      <c r="J19" s="54">
+        <v>35.93</v>
       </c>
-      <c r="K19" s="52">
-        <f>Table_13[[#This Row],[Qty]]*Table_13[[#This Row],[Unit Cost GBP]]</f>
-        <v>3.0419999999999998</v>
+      <c r="K19" s="50">
+        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
+        <v>35.93</v>
       </c>
-      <c r="L19" s="54">
-        <v>1.69</v>
-      </c>
-      <c r="M19" s="50" t="s">
-        <v>56</v>
+      <c r="L19" s="41"/>
+      <c r="M19" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -2889,37 +3044,35 @@
     </row>
     <row r="20" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="20">
         <v>1</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="48" t="s">
+      <c r="F20" s="20"/>
+      <c r="H20" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="24" t="s">
-        <v>58</v>
+      <c r="I20" s="36" t="s">
+        <v>86</v>
       </c>
-      <c r="J20" s="51">
-        <v>12.99</v>
+      <c r="J20" s="54">
+        <v>5.99</v>
       </c>
-      <c r="K20" s="52">
-        <f>Table_13[[#This Row],[Unit Cost GBP]]</f>
-        <v>12.99</v>
+      <c r="K20" s="50">
+        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
+        <v>5.99</v>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="50" t="s">
-        <v>56</v>
+      <c r="L20" s="41"/>
+      <c r="M20" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -2935,10 +3088,10 @@
     </row>
     <row r="21" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>64</v>
@@ -2947,25 +3100,23 @@
       <c r="E21" s="20">
         <v>1</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="48" t="s">
+      <c r="F21" s="20"/>
+      <c r="H21" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="37" t="s">
-        <v>61</v>
+      <c r="I21" s="36" t="s">
+        <v>66</v>
       </c>
-      <c r="J21" s="51">
-        <v>4.54</v>
+      <c r="J21" s="49">
+        <v>3.25</v>
       </c>
-      <c r="K21" s="52">
-        <f>Table_13[[#This Row],[Unit Cost GBP]]</f>
-        <v>4.54</v>
+      <c r="K21" s="50">
+        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
+        <v>3.25</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="50" t="s">
-        <v>56</v>
+      <c r="L21" s="41"/>
+      <c r="M21" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2981,38 +3132,36 @@
     </row>
     <row r="22" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20">
         <v>1</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
-      <c r="H22" s="48" t="s">
+      <c r="H22" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I22" s="37" t="s">
-        <v>65</v>
+      <c r="I22" s="36" t="s">
+        <v>94</v>
       </c>
-      <c r="J22" s="51">
-        <v>5.83</v>
+      <c r="J22" s="49">
+        <v>7.99</v>
       </c>
-      <c r="K22" s="52">
-        <f>Table_13[[#This Row],[Unit Cost GBP]]</f>
-        <v>5.83</v>
+      <c r="K22" s="50">
+        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
+        <v>7.99</v>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="50" t="s">
-        <v>56</v>
-      </c>
+      <c r="L22" s="41"/>
+      <c r="M22" s="55"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3027,35 +3176,37 @@
     </row>
     <row r="23" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20">
         <v>1</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="H23" s="48" t="s">
+      <c r="F23" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="37" t="s">
-        <v>80</v>
+      <c r="I23" s="36" t="s">
+        <v>57</v>
       </c>
-      <c r="J23" s="51">
-        <v>16.989999999999998</v>
+      <c r="J23" s="49">
+        <v>12.99</v>
       </c>
-      <c r="K23" s="52">
-        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>16.989999999999998</v>
+      <c r="K23" s="50">
+        <f>Table_13[[#This Row],[Unit Cost GBP]]</f>
+        <v>12.99</v>
       </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="50" t="s">
-        <v>56</v>
+      <c r="L23" s="42"/>
+      <c r="M23" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -3071,35 +3222,37 @@
     </row>
     <row r="24" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="20">
         <v>1</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="H24" s="48" t="s">
+      <c r="F24" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="37" t="s">
-        <v>84</v>
+      <c r="I24" s="36" t="s">
+        <v>88</v>
       </c>
-      <c r="J24" s="51">
-        <v>7.99</v>
+      <c r="J24" s="49">
+        <v>4.54</v>
       </c>
-      <c r="K24" s="52">
-        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>7.99</v>
+      <c r="K24" s="50">
+        <f>Table_13[[#This Row],[Unit Cost GBP]]</f>
+        <v>4.54</v>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="50" t="s">
-        <v>56</v>
+      <c r="L24" s="42"/>
+      <c r="M24" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -3115,35 +3268,37 @@
     </row>
     <row r="25" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="20">
         <v>1</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="H25" s="48" t="s">
+      <c r="F25" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I25" s="37" t="s">
-        <v>70</v>
+      <c r="I25" s="36" t="s">
+        <v>98</v>
       </c>
-      <c r="J25" s="51">
-        <v>12.99</v>
+      <c r="J25" s="49">
+        <v>5.83</v>
       </c>
-      <c r="K25" s="52">
-        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>12.99</v>
+      <c r="K25" s="50">
+        <f>Table_13[[#This Row],[Unit Cost GBP]]</f>
+        <v>5.83</v>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="50" t="s">
-        <v>56</v>
+      <c r="L25" s="42"/>
+      <c r="M25" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -3157,41 +3312,37 @@
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
     </row>
-    <row r="26" spans="1:24" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>26</v>
+      <c r="B26" s="19" t="s">
+        <v>41</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>27</v>
+      <c r="C26" s="19" t="s">
+        <v>74</v>
       </c>
-      <c r="D26" s="22"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="20">
         <v>1</v>
       </c>
       <c r="F26" s="20"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="48" t="s">
-        <v>17</v>
+      <c r="H26" s="56" t="s">
+        <v>19</v>
       </c>
-      <c r="I26" s="47" t="s">
-        <v>29</v>
+      <c r="I26" s="36" t="s">
+        <v>73</v>
       </c>
-      <c r="J26" s="51">
-        <f>Table_13[[#This Row],[Unit Cost EUR]]*$C$8</f>
-        <v>26.991</v>
+      <c r="J26" s="49">
+        <v>16.989999999999998</v>
       </c>
-      <c r="K26" s="52">
-        <f>Table_13[[#This Row],[Qty]]*Table_13[[#This Row],[Unit Cost GBP]]</f>
-        <v>26.991</v>
+      <c r="K26" s="50">
+        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
+        <v>16.989999999999998</v>
       </c>
-      <c r="L26" s="54">
-        <v>29.99</v>
-      </c>
-      <c r="M26" s="50" t="s">
-        <v>56</v>
+      <c r="L26" s="42"/>
+      <c r="M26" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3205,37 +3356,37 @@
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
     </row>
-    <row r="27" spans="1:24" ht="55" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>48</v>
+      <c r="B27" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="C27" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="20">
         <v>1</v>
       </c>
       <c r="F27" s="20"/>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="37" t="s">
+      <c r="I27" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="51">
-        <v>13.12</v>
+      <c r="J27" s="49">
+        <v>7.99</v>
       </c>
-      <c r="K27" s="52">
+      <c r="K27" s="50">
         <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>13.12</v>
+        <v>7.99</v>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="50" t="s">
-        <v>56</v>
+      <c r="L27" s="42"/>
+      <c r="M27" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -3249,37 +3400,37 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>75</v>
+      <c r="B28" s="19" t="s">
+        <v>62</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>49</v>
+      <c r="C28" s="19" t="s">
+        <v>62</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="20">
         <v>1</v>
       </c>
       <c r="F28" s="20"/>
-      <c r="H28" s="22" t="s">
+      <c r="H28" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="37" t="s">
-        <v>74</v>
+      <c r="I28" s="36" t="s">
+        <v>63</v>
       </c>
-      <c r="J28" s="51">
-        <v>134.99</v>
+      <c r="J28" s="49">
+        <v>12.99</v>
       </c>
-      <c r="K28" s="52">
+      <c r="K28" s="50">
         <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>134.99</v>
+        <v>12.99</v>
       </c>
-      <c r="L28" s="43"/>
-      <c r="M28" s="50" t="s">
-        <v>56</v>
+      <c r="L28" s="42"/>
+      <c r="M28" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -3293,19 +3444,38 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="45"/>
-      <c r="M29" s="1"/>
+    <row r="29" spans="1:24" ht="55" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="20">
+        <v>1</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="H29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="49">
+        <v>13.12</v>
+      </c>
+      <c r="K29" s="50">
+        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
+        <v>13.12</v>
+      </c>
+      <c r="L29" s="42"/>
+      <c r="M29" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -3318,20 +3488,38 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="1"/>
+    <row r="30" spans="1:24" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="20">
+        <v>1</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="H30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="49">
+        <v>134.99</v>
+      </c>
+      <c r="K30" s="50">
+        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
+        <v>134.99</v>
+      </c>
+      <c r="L30" s="42"/>
+      <c r="M30" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -3346,14 +3534,17 @@
     </row>
     <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
-      <c r="J31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="52">
-        <f>SUM(K13:K28)</f>
-        <v>320.065</v>
-      </c>
-      <c r="L31" s="46"/>
+      <c r="B31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -3371,14 +3562,14 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="41"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="43"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -3394,18 +3585,14 @@
     </row>
     <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="1"/>
+      <c r="J33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="50">
+        <f>SUM(K12:K30)</f>
+        <v>334.04500000000007</v>
+      </c>
+      <c r="L33" s="45"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -3420,16 +3607,17 @@
     </row>
     <row r="34" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="41"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -3448,19 +3636,14 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="52">
-        <f>SUM(K31:K33)</f>
-        <v>320.065</v>
-      </c>
-      <c r="L35" s="41"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="40"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -3476,17 +3659,16 @@
     </row>
     <row r="36" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="39"/>
-      <c r="L36" s="41"/>
+      <c r="L36" s="40"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -3505,14 +3687,19 @@
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="41"/>
+      <c r="J37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="50">
+        <f>SUM(K33:K35)</f>
+        <v>334.04500000000007</v>
+      </c>
+      <c r="L37" s="40"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -3531,14 +3718,14 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="41"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="40"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -3557,14 +3744,14 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="1"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="40"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -3579,147 +3766,147 @@
       <c r="X39" s="1"/>
     </row>
     <row r="40" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="27"/>
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-    </row>
-    <row r="41" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="29"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-    </row>
-    <row r="42" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-    </row>
-    <row r="43" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="1"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-    </row>
-    <row r="44" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+    </row>
+    <row r="41" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+    </row>
+    <row r="42" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="26"/>
+      <c r="B42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+    </row>
+    <row r="43" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="28"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+    </row>
+    <row r="44" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="1"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="35"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -3790,7 +3977,7 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="3"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -3816,7 +4003,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="3"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -28433,7 +28620,8 @@
       <c r="W995" s="1"/>
       <c r="X995" s="1"/>
     </row>
-    <row r="996" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="996" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
       <c r="D996" s="1"/>
@@ -28445,20 +28633,80 @@
       <c r="J996" s="3"/>
       <c r="K996" s="3"/>
       <c r="L996" s="1"/>
+      <c r="M996" s="1"/>
+      <c r="N996" s="1"/>
+      <c r="O996" s="1"/>
+      <c r="P996" s="1"/>
+      <c r="Q996" s="1"/>
+      <c r="R996" s="1"/>
+      <c r="S996" s="1"/>
+      <c r="T996" s="1"/>
+      <c r="U996" s="1"/>
+      <c r="V996" s="1"/>
+      <c r="W996" s="1"/>
+      <c r="X996" s="1"/>
+    </row>
+    <row r="997" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A997" s="1"/>
+      <c r="B997" s="1"/>
+      <c r="C997" s="1"/>
+      <c r="D997" s="1"/>
+      <c r="E997" s="3"/>
+      <c r="F997" s="3"/>
+      <c r="G997" s="3"/>
+      <c r="H997" s="3"/>
+      <c r="I997" s="3"/>
+      <c r="J997" s="3"/>
+      <c r="K997" s="3"/>
+      <c r="L997" s="1"/>
+      <c r="M997" s="1"/>
+      <c r="N997" s="1"/>
+      <c r="O997" s="1"/>
+      <c r="P997" s="1"/>
+      <c r="Q997" s="1"/>
+      <c r="R997" s="1"/>
+      <c r="S997" s="1"/>
+      <c r="T997" s="1"/>
+      <c r="U997" s="1"/>
+      <c r="V997" s="1"/>
+      <c r="W997" s="1"/>
+      <c r="X997" s="1"/>
+    </row>
+    <row r="998" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B998" s="1"/>
+      <c r="C998" s="1"/>
+      <c r="D998" s="1"/>
+      <c r="E998" s="3"/>
+      <c r="F998" s="3"/>
+      <c r="G998" s="3"/>
+      <c r="H998" s="3"/>
+      <c r="I998" s="3"/>
+      <c r="J998" s="3"/>
+      <c r="K998" s="3"/>
+      <c r="L998" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I21" r:id="rId2" xr:uid="{908F6422-1BDA-A744-8C3B-079579816F94}"/>
-    <hyperlink ref="I22" r:id="rId3" xr:uid="{F019DC42-1C0D-DB47-80E3-37FD37BDC968}"/>
-    <hyperlink ref="I27" r:id="rId4" xr:uid="{99C737DB-ABFE-D742-B295-28E992EFD086}"/>
+    <hyperlink ref="I16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I29" r:id="rId2" xr:uid="{99C737DB-ABFE-D742-B295-28E992EFD086}"/>
+    <hyperlink ref="I20" r:id="rId3" xr:uid="{91AC24B5-D19A-1049-B023-C975D8783D36}"/>
+    <hyperlink ref="I24" r:id="rId4" xr:uid="{49882500-9D9A-564F-B45E-4B6F1499AF8E}"/>
+    <hyperlink ref="I22" r:id="rId5" xr:uid="{5627E395-E1D8-E64F-BC15-B699FB043173}"/>
+    <hyperlink ref="I13" r:id="rId6" xr:uid="{C868FDC4-3E9A-D04F-B91A-B8BF83FB4B8D}"/>
+    <hyperlink ref="I14" r:id="rId7" xr:uid="{79272378-298D-2B4F-87A5-593A9DD64912}"/>
+    <hyperlink ref="I18" r:id="rId8" xr:uid="{E1A5978E-FEB3-0940-AD56-675C31179BFB}"/>
+    <hyperlink ref="I19" r:id="rId9" xr:uid="{49FB5248-6FFB-6E40-A884-B36601BC88A5}"/>
+    <hyperlink ref="I21" r:id="rId10" xr:uid="{84F6E21E-9A7F-4F4A-AF67-2AE15BAA5434}"/>
+    <hyperlink ref="I23" r:id="rId11" xr:uid="{6776FCB7-3BC1-9344-93E4-907BEA417995}"/>
+    <hyperlink ref="I26" r:id="rId12" xr:uid="{2111832C-E76B-C444-9928-BD41F9294EF6}"/>
+    <hyperlink ref="I28" r:id="rId13" xr:uid="{C03CD728-C444-C344-B0BC-F671FA10BE72}"/>
   </hyperlinks>
   <pageMargins left="0.74805555555555558" right="0.74805555555555558" top="1.3776388888888889" bottom="1.3776388888888889" header="0.98388888888888892" footer="0.98388888888888892"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId5"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId14"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId15"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
--- a/BOM/lushroom_pi_BOM.xlsx
+++ b/BOM/lushroom_pi_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Arup/Jobs/Lush_Spa/Code/LushRooms/LushRooms/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848F3F33-2B6D-6742-9071-78C6D3DF5861}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA673C1-4D19-2340-A686-8B8362E59F4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2319,7 +2319,7 @@
   <dimension ref="A1:X998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/BOM/lushroom_pi_BOM.xlsx
+++ b/BOM/lushroom_pi_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Arup/Jobs/Lush_Spa/Code/LushRooms/LushRooms/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA673C1-4D19-2340-A686-8B8362E59F4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30FCE95-5202-6349-83F7-8ABA5C7C2B98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>Assembly Name :</t>
   </si>
@@ -245,12 +246,6 @@
     <t>Raspberry Pi 3 Model B+</t>
   </si>
   <si>
-    <t>https://www.amazon.co.uk/gp/product/B07BDR5PDW/ref=oh_aui_detailpage_o09_s00?ie=UTF8&amp;psc=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/gp/product/B01MRQTMTD/ref=oh_aui_detailpage_o01_s00?ie=UTF8&amp;psc=1</t>
-  </si>
-  <si>
     <t>ELEGOO 3.5 Inch TFT LCD 480x320 Screen For Raspberry Pi 3 2 3.5 Inch 480x320 TFT Touch Screen Monitor for Raspberry Pi Model B B+ A+ A Module SPI Interface with Touch Pen SC06</t>
   </si>
   <si>
@@ -258,12 +253,6 @@
   </si>
   <si>
     <t>Official 5V 2.5A Power Adapter for the Raspberry Pi 3</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/Official-Power-Adapter-Raspberry-Pi/dp/B01CO1HZJ6/ref=sr_1_6?s=computers&amp;ie=UTF8&amp;qid=1546820039&amp;sr=1-6&amp;keywords=raspberry+pi+power+supply</t>
-  </si>
-  <si>
-    <t>1m Slim HDMI Cable, The World's Slimmest HDMI Lead? (Gold Plated, 1080p, 4K, UHD, 3D, High Speed, ARC)</t>
   </si>
   <si>
     <t xml:space="preserve">USB 2.0 A-Male to Mini B Cable </t>
@@ -279,18 +268,6 @@
   </si>
   <si>
     <t>Controls</t>
-  </si>
-  <si>
-    <t>Cooling</t>
-  </si>
-  <si>
-    <t>Heatsinks</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.uk/Aukru-Heat-Raspberry-Aluminium-Silver/dp/B00ILK6DMA/ref=sr_1_20?ie=UTF8&amp;qid=1547332737&amp;sr=8-20&amp;keywords=raspberry+pi+3+b%2B+heatsinks</t>
-  </si>
-  <si>
-    <t>Aukru Aluminum Raspberry Pi Heatsink</t>
   </si>
   <si>
     <t>https://www.amazon.co.uk/Machine-Screws-Bolts-Plated-Screw/dp/B00DY28UK8/ref=sr_1_6?s=diy&amp;ie=UTF8&amp;qid=1547333392&amp;sr=1-6&amp;keywords=m2.5+screw+12mm</t>
@@ -320,9 +297,6 @@
     <t>https://www.tinkerforge.com/en/shop/accessories/mounting/mounting-kit-12mm.html</t>
   </si>
   <si>
-    <t>https://www.amazon.co.uk/Cable-Worlds-Slimmest-Plated-1080p-Classic-SlimHDMI/dp/B00S0SNFAQ/ref=sr_1_1?s=electronics&amp;ie=UTF8&amp;qid=1547334560&amp;sr=1-1&amp;keywords=1m+Slim+HDMI+Cable%2C+The+World%27s+Slimmest+HDMI+Lead%3F+%28Gold+Plated%2C+1080p%2C+4K%2C+UHD%2C+3D%2C+High+Speed%2C+ARC%29</t>
-  </si>
-  <si>
     <t>https://www.amazon.co.uk/gp/product/B07JC9XQNR/ref=ox_sc_act_title_1?smid=ARRV6GA0U2WO7&amp;psc=1</t>
   </si>
   <si>
@@ -330,6 +304,27 @@
   </si>
   <si>
     <t>the bag has 500 pieces</t>
+  </si>
+  <si>
+    <t>Waveshare</t>
+  </si>
+  <si>
+    <t>https://www.waveshare.com/3.5inch-rpi-lcd-b.htm</t>
+  </si>
+  <si>
+    <t>Pimoroni</t>
+  </si>
+  <si>
+    <t>https://shop.pimoroni.com/products/raspberry-pi-3-b-plus</t>
+  </si>
+  <si>
+    <t>https://shop.pimoroni.com/products/raspberry-pi-universal-power-supply</t>
+  </si>
+  <si>
+    <t>30 cm HDMI cable</t>
+  </si>
+  <si>
+    <t>https://shop.pimoroni.com/products/black-hdmi-cable?variant=3007456129</t>
   </si>
 </sst>
 </file>
@@ -1149,13 +1144,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>50799</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1236132</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>736600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1208,13 +1203,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>736600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1269,13 +1264,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>937919</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>673100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1330,13 +1325,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>685800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1391,13 +1386,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>165101</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>117941</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1155701</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>737396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1452,13 +1447,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>100147</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1168400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>853797</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1513,13 +1508,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1193800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>658586</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1633,13 +1628,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1154920</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>711200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1692,13 +1687,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>185973</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>977900</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>727077</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1874,73 +1869,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>693479</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20" descr="https://images-na.ssl-images-amazon.com/images/I/71vbj1GLV3L._SL1500_.jpg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B76056-BF0E-0646-8ADA-018062D2CF31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="18605" b="16666"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7810500" y="6096000"/>
-          <a:ext cx="914400" cy="591879"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>736600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1957,7 +1893,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1995,7 +1931,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_13" displayName="Table_13" ref="B11:M33" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_13" displayName="Table_13" ref="B11:M32" totalsRowCount="1">
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Part description"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Product name"/>
@@ -2008,7 +1944,7 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Unit Cost GBP" totalsRowLabel="Subtotal" dataDxfId="6" totalsRowDxfId="2"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Total Cost GBP" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
       <calculatedColumnFormula>Table_13[[#This Row],[Qty]]*Table_13[[#This Row],[Unit Cost GBP]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(K12:K30)</totalsRowFormula>
+      <totalsRowFormula>SUM(K12:K29)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Unit Cost EUR" dataDxfId="4" totalsRowDxfId="0">
       <calculatedColumnFormula>#REF!/$C$8</calculatedColumnFormula>
@@ -2316,10 +2252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X998"/>
+  <dimension ref="A1:X997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2577,8 +2513,8 @@
         <v>34</v>
       </c>
       <c r="C9" s="53">
-        <f>K37</f>
-        <v>334.04500000000007</v>
+        <f>K36</f>
+        <v>328.15500000000003</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="11"/>
@@ -2706,7 +2642,7 @@
       <c r="K12" s="39"/>
       <c r="L12" s="41"/>
       <c r="M12" s="48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2823,7 +2759,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="20">
@@ -2834,7 +2770,7 @@
         <v>17</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J15" s="49">
         <f>Table_13[[#This Row],[Unit Cost EUR]]*$C$8</f>
@@ -2864,7 +2800,7 @@
     </row>
     <row r="16" spans="1:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>26</v>
@@ -2918,7 +2854,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="20">
@@ -2926,17 +2862,17 @@
       </c>
       <c r="F17" s="20"/>
       <c r="H17" s="56" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
-      <c r="I17" s="36" t="s">
-        <v>97</v>
+      <c r="I17" s="46" t="s">
+        <v>98</v>
       </c>
       <c r="J17" s="49">
-        <v>5.99</v>
+        <v>4</v>
       </c>
       <c r="K17" s="50">
         <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>5.99</v>
+        <v>4</v>
       </c>
       <c r="L17" s="41"/>
       <c r="M17" s="48" t="s">
@@ -2959,10 +2895,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="20">
@@ -2973,7 +2909,7 @@
         <v>19</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J18" s="49">
         <v>7.99</v>
@@ -3014,17 +2950,17 @@
       </c>
       <c r="F19" s="20"/>
       <c r="H19" s="56" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
-      <c r="I19" s="36" t="s">
-        <v>72</v>
+      <c r="I19" s="46" t="s">
+        <v>95</v>
       </c>
       <c r="J19" s="54">
-        <v>35.93</v>
+        <v>34</v>
       </c>
       <c r="K19" s="50">
         <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>35.93</v>
+        <v>34</v>
       </c>
       <c r="L19" s="41"/>
       <c r="M19" s="48" t="s">
@@ -3044,13 +2980,13 @@
     </row>
     <row r="20" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="20">
@@ -3061,14 +2997,14 @@
         <v>19</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
-      <c r="J20" s="54">
-        <v>5.99</v>
+      <c r="J20" s="49">
+        <v>3.25</v>
       </c>
       <c r="K20" s="50">
         <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>5.99</v>
+        <v>3.25</v>
       </c>
       <c r="L20" s="41"/>
       <c r="M20" s="48" t="s">
@@ -3088,36 +3024,36 @@
     </row>
     <row r="21" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="20">
         <v>1</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="H21" s="56" t="s">
         <v>19</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="J21" s="49">
-        <v>3.25</v>
+        <v>7.99</v>
       </c>
       <c r="K21" s="50">
         <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>3.25</v>
+        <v>7.99</v>
       </c>
       <c r="L21" s="41"/>
-      <c r="M21" s="48" t="s">
-        <v>55</v>
-      </c>
+      <c r="M21" s="55"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3132,36 +3068,38 @@
     </row>
     <row r="22" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="20">
         <v>1</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="H22" s="56" t="s">
         <v>19</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="J22" s="49">
-        <v>7.99</v>
+        <v>12.99</v>
       </c>
       <c r="K22" s="50">
-        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>7.99</v>
+        <f>Table_13[[#This Row],[Unit Cost GBP]]</f>
+        <v>12.99</v>
       </c>
-      <c r="L22" s="41"/>
-      <c r="M22" s="55"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="48" t="s">
+        <v>55</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3179,30 +3117,30 @@
         <v>22</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="20">
         <v>1</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H23" s="56" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="J23" s="49">
-        <v>12.99</v>
+        <v>4.54</v>
       </c>
       <c r="K23" s="50">
         <f>Table_13[[#This Row],[Unit Cost GBP]]</f>
-        <v>12.99</v>
+        <v>4.54</v>
       </c>
       <c r="L23" s="42"/>
       <c r="M23" s="48" t="s">
@@ -3225,30 +3163,30 @@
         <v>22</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="20">
         <v>1</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="H24" s="56" t="s">
         <v>19</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J24" s="49">
-        <v>4.54</v>
+        <v>5.83</v>
       </c>
       <c r="K24" s="50">
         <f>Table_13[[#This Row],[Unit Cost GBP]]</f>
-        <v>4.54</v>
+        <v>5.83</v>
       </c>
       <c r="L24" s="42"/>
       <c r="M24" s="48" t="s">
@@ -3268,33 +3206,31 @@
     </row>
     <row r="25" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="20">
         <v>1</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>100</v>
+      <c r="F25" s="20"/>
+      <c r="H25" s="56" t="s">
+        <v>92</v>
       </c>
-      <c r="H25" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="36" t="s">
-        <v>98</v>
+      <c r="I25" s="46" t="s">
+        <v>93</v>
       </c>
       <c r="J25" s="49">
-        <v>5.83</v>
+        <v>21</v>
       </c>
       <c r="K25" s="50">
-        <f>Table_13[[#This Row],[Unit Cost GBP]]</f>
-        <v>5.83</v>
+        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
+        <v>21</v>
       </c>
       <c r="L25" s="42"/>
       <c r="M25" s="48" t="s">
@@ -3314,10 +3250,10 @@
     </row>
     <row r="26" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>74</v>
@@ -3328,17 +3264,17 @@
       </c>
       <c r="F26" s="20"/>
       <c r="H26" s="56" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
-      <c r="I26" s="36" t="s">
-        <v>73</v>
+      <c r="I26" s="46" t="s">
+        <v>96</v>
       </c>
       <c r="J26" s="49">
-        <v>16.989999999999998</v>
+        <v>8</v>
       </c>
       <c r="K26" s="50">
         <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>16.989999999999998</v>
+        <v>8</v>
       </c>
       <c r="L26" s="42"/>
       <c r="M26" s="48" t="s">
@@ -3358,13 +3294,13 @@
     </row>
     <row r="27" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="20">
@@ -3375,14 +3311,14 @@
         <v>19</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="J27" s="49">
-        <v>7.99</v>
+        <v>12.99</v>
       </c>
       <c r="K27" s="50">
         <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>7.99</v>
+        <v>12.99</v>
       </c>
       <c r="L27" s="42"/>
       <c r="M27" s="48" t="s">
@@ -3400,33 +3336,33 @@
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
     </row>
-    <row r="28" spans="1:24" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="55" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>62</v>
+      <c r="B28" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="20">
         <v>1</v>
       </c>
       <c r="F28" s="20"/>
-      <c r="H28" s="56" t="s">
+      <c r="H28" s="22" t="s">
         <v>19</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J28" s="49">
-        <v>12.99</v>
+        <v>13.12</v>
       </c>
       <c r="K28" s="50">
         <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>12.99</v>
+        <v>13.12</v>
       </c>
       <c r="L28" s="42"/>
       <c r="M28" s="48" t="s">
@@ -3444,15 +3380,15 @@
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
     </row>
-    <row r="29" spans="1:24" ht="55" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>69</v>
+      <c r="C29" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="D29" s="22"/>
       <c r="E29" s="20">
@@ -3463,14 +3399,14 @@
         <v>19</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J29" s="49">
-        <v>13.12</v>
+        <v>134.99</v>
       </c>
       <c r="K29" s="50">
         <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>13.12</v>
+        <v>134.99</v>
       </c>
       <c r="L29" s="42"/>
       <c r="M29" s="48" t="s">
@@ -3488,38 +3424,19 @@
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
     </row>
-    <row r="30" spans="1:24" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="20">
-        <v>1</v>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="H30" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="49">
-        <v>134.99</v>
-      </c>
-      <c r="K30" s="50">
-        <f>Table_13[[#This Row],[Unit Cost GBP]]*Table_13[[#This Row],[Qty]]</f>
-        <v>134.99</v>
-      </c>
-      <c r="L30" s="42"/>
-      <c r="M30" s="48" t="s">
-        <v>55</v>
-      </c>
+    <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -3535,6 +3452,7 @@
     <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
@@ -3543,7 +3461,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="37"/>
-      <c r="L31" s="44"/>
+      <c r="L31" s="43"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -3559,18 +3477,14 @@
     </row>
     <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="50">
+        <f>SUM(K12:K29)</f>
+        <v>328.15500000000003</v>
+      </c>
+      <c r="L32" s="45"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3585,14 +3499,18 @@
     </row>
     <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1"/>
-      <c r="J33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K33" s="50">
-        <f>SUM(K12:K30)</f>
-        <v>334.04500000000007</v>
-      </c>
-      <c r="L33" s="45"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -3633,7 +3551,6 @@
     </row>
     <row r="35" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="24"/>
@@ -3659,6 +3576,7 @@
     </row>
     <row r="36" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="24"/>
@@ -3666,8 +3584,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="39"/>
+      <c r="J36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="50">
+        <f>SUM(K32:K34)</f>
+        <v>328.15500000000003</v>
+      </c>
       <c r="L36" s="40"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -3692,13 +3615,8 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K37" s="50">
-        <f>SUM(K33:K35)</f>
-        <v>334.04500000000007</v>
-      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="38"/>
       <c r="L37" s="40"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -3750,7 +3668,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="38"/>
+      <c r="K39" s="25"/>
       <c r="L39" s="40"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -3770,14 +3688,14 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="40"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -3792,9 +3710,8 @@
       <c r="X40" s="1"/>
     </row>
     <row r="41" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="3"/>
@@ -3804,31 +3721,32 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-    </row>
-    <row r="42" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="26"/>
-      <c r="B42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="1"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+    </row>
+    <row r="42" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="28"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="26"/>
       <c r="M42" s="26"/>
       <c r="N42" s="26"/>
       <c r="O42" s="26"/>
@@ -3842,19 +3760,19 @@
       <c r="W42" s="26"/>
       <c r="X42" s="26"/>
     </row>
-    <row r="43" spans="1:24" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="28"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="26"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="35"/>
       <c r="M43" s="26"/>
       <c r="N43" s="26"/>
       <c r="O43" s="26"/>
@@ -3868,8 +3786,8 @@
       <c r="W43" s="26"/>
       <c r="X43" s="26"/>
     </row>
-    <row r="44" spans="1:24" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="28"/>
+    <row r="44" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -3881,32 +3799,32 @@
       <c r="J44" s="33"/>
       <c r="K44" s="34"/>
       <c r="L44" s="35"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
-      <c r="X44" s="26"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
     </row>
     <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="35"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -4003,7 +3921,7 @@
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -28646,8 +28564,7 @@
       <c r="W996" s="1"/>
       <c r="X996" s="1"/>
     </row>
-    <row r="997" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A997" s="1"/>
+    <row r="997" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
       <c r="D997" s="1"/>
@@ -28659,54 +28576,30 @@
       <c r="J997" s="3"/>
       <c r="K997" s="3"/>
       <c r="L997" s="1"/>
-      <c r="M997" s="1"/>
-      <c r="N997" s="1"/>
-      <c r="O997" s="1"/>
-      <c r="P997" s="1"/>
-      <c r="Q997" s="1"/>
-      <c r="R997" s="1"/>
-      <c r="S997" s="1"/>
-      <c r="T997" s="1"/>
-      <c r="U997" s="1"/>
-      <c r="V997" s="1"/>
-      <c r="W997" s="1"/>
-      <c r="X997" s="1"/>
-    </row>
-    <row r="998" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="3"/>
-      <c r="F998" s="3"/>
-      <c r="G998" s="3"/>
-      <c r="H998" s="3"/>
-      <c r="I998" s="3"/>
-      <c r="J998" s="3"/>
-      <c r="K998" s="3"/>
-      <c r="L998" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I29" r:id="rId2" xr:uid="{99C737DB-ABFE-D742-B295-28E992EFD086}"/>
-    <hyperlink ref="I20" r:id="rId3" xr:uid="{91AC24B5-D19A-1049-B023-C975D8783D36}"/>
-    <hyperlink ref="I24" r:id="rId4" xr:uid="{49882500-9D9A-564F-B45E-4B6F1499AF8E}"/>
-    <hyperlink ref="I22" r:id="rId5" xr:uid="{5627E395-E1D8-E64F-BC15-B699FB043173}"/>
-    <hyperlink ref="I13" r:id="rId6" xr:uid="{C868FDC4-3E9A-D04F-B91A-B8BF83FB4B8D}"/>
-    <hyperlink ref="I14" r:id="rId7" xr:uid="{79272378-298D-2B4F-87A5-593A9DD64912}"/>
-    <hyperlink ref="I18" r:id="rId8" xr:uid="{E1A5978E-FEB3-0940-AD56-675C31179BFB}"/>
-    <hyperlink ref="I19" r:id="rId9" xr:uid="{49FB5248-6FFB-6E40-A884-B36601BC88A5}"/>
-    <hyperlink ref="I21" r:id="rId10" xr:uid="{84F6E21E-9A7F-4F4A-AF67-2AE15BAA5434}"/>
-    <hyperlink ref="I23" r:id="rId11" xr:uid="{6776FCB7-3BC1-9344-93E4-907BEA417995}"/>
-    <hyperlink ref="I26" r:id="rId12" xr:uid="{2111832C-E76B-C444-9928-BD41F9294EF6}"/>
-    <hyperlink ref="I28" r:id="rId13" xr:uid="{C03CD728-C444-C344-B0BC-F671FA10BE72}"/>
+    <hyperlink ref="I28" r:id="rId2" xr:uid="{99C737DB-ABFE-D742-B295-28E992EFD086}"/>
+    <hyperlink ref="I23" r:id="rId3" xr:uid="{49882500-9D9A-564F-B45E-4B6F1499AF8E}"/>
+    <hyperlink ref="I21" r:id="rId4" xr:uid="{5627E395-E1D8-E64F-BC15-B699FB043173}"/>
+    <hyperlink ref="I13" r:id="rId5" xr:uid="{C868FDC4-3E9A-D04F-B91A-B8BF83FB4B8D}"/>
+    <hyperlink ref="I14" r:id="rId6" xr:uid="{79272378-298D-2B4F-87A5-593A9DD64912}"/>
+    <hyperlink ref="I18" r:id="rId7" xr:uid="{E1A5978E-FEB3-0940-AD56-675C31179BFB}"/>
+    <hyperlink ref="I20" r:id="rId8" xr:uid="{84F6E21E-9A7F-4F4A-AF67-2AE15BAA5434}"/>
+    <hyperlink ref="I22" r:id="rId9" xr:uid="{6776FCB7-3BC1-9344-93E4-907BEA417995}"/>
+    <hyperlink ref="I27" r:id="rId10" xr:uid="{C03CD728-C444-C344-B0BC-F671FA10BE72}"/>
+    <hyperlink ref="I25" r:id="rId11" xr:uid="{DA315E85-3546-3240-BA16-DE1C58F39C35}"/>
+    <hyperlink ref="I19" r:id="rId12" xr:uid="{2088403F-EB8E-0D4C-9D41-19D37030A23D}"/>
+    <hyperlink ref="I26" r:id="rId13" xr:uid="{D5CEB656-471D-4C43-8CA7-9B33172D3E3E}"/>
+    <hyperlink ref="I17" r:id="rId14" xr:uid="{C811D1EC-6BB7-DC4B-871E-752E73FC6302}"/>
   </hyperlinks>
   <pageMargins left="0.74805555555555558" right="0.74805555555555558" top="1.3776388888888889" bottom="1.3776388888888889" header="0.98388888888888892" footer="0.98388888888888892"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId14"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId15"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId16"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>